--- a/medicine/Pharmacie/Classe_ATC_N05/Classe_ATC_N05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_N05/Classe_ATC_N05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N05, dénommée « Psycholeptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N05, dénommée « Psycholeptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N05AA Phénothiazines à chaîne latérale aliphatique
-N05AA01 Chlorpromazine
+          <t>N05AA Phénothiazines à chaîne latérale aliphatique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N05AA01 Chlorpromazine
 N05AA02 Lévomépromazine
 N05AA03 Promazine
 N05AA04 Acépromazine
 N05AA05 Triflupromazine
 N05AA06 Cyamémazine
-N05AA07 Chlorproéthazine
-N05AB Phénothiazines à structure de pipérazine
-N05AB01 Dixyrazine
+N05AA07 Chlorproéthazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N05AB Phénothiazines à structure de pipérazine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N05AB01 Dixyrazine
 N05AB02 Fluphénazine
 N05AB03 Perphénazine
 N05AB04 Prochlorpérazine
@@ -531,14 +582,82 @@
 N05AB07 Acétophénazine
 N05AB08 Thiopropérazine
 N05AB09 Butapérazine
-N05AB10 Pérazine
-N05AC Phénothiazines à structure de pipéridine
-N05AC01 Périciazine
+N05AB10 Pérazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N05AC Phénothiazines à structure de pipéridine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N05AC01 Périciazine
 N05AC02 Thioridazine
 N05AC03 Mésoridazine
-N05AC04 Pipotiazine
-N05AD Dérivés du butyrophénone
-N05AD01 Halopéridol
+N05AC04 Pipotiazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N05AD Dérivés du butyrophénone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N05AD01 Halopéridol
 N05AD02 Triflupéridol
 N05AD03 Melpérone
 N05AD04 Mopérone
@@ -548,44 +667,317 @@
 N05AD08 Dropéridol
 N05AD09 Fluanisone
 N05AD10 Lumatépérone
-QN05AD90 Azapérone
-N05AE Dérivés de l'indole
-N05AE01 Oxypertine
+QN05AD90 Azapérone</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N05AE Dérivés de l'indole</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N05AE01 Oxypertine
 N05AE02 Molindone
 N05AE03 Sertindole
 N05AE04 Ziprasidone
-N05AE05 Lurasidone
-N05AF Dérivés du thioxanthène
-N05AF01 Flupentixol
+N05AE05 Lurasidone</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N05AF Dérivés du thioxanthène</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N05AF01 Flupentixol
 N05AF02 Clopenthixol
 N05AF03 Chlorprothixène
 N05AF04 Thiothixène
-N05AF05 Zuclopenthixol
-N05AG Dérivés de la diphénylbutylpipéridine
-N05AG01 Fluspirilène
+N05AF05 Zuclopenthixol</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N05AG Dérivés de la diphénylbutylpipéridine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N05AG01 Fluspirilène
 N05AG02 Pimozide
-N05AG03 Penfluridol
-N05AH Diazépines, oxazépines, thiazépines et oxépines
-N05AH01 Loxapine
+N05AG03 Penfluridol</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N05AH Diazépines, oxazépines, thiazépines et oxépines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N05AH01 Loxapine
 N05AH02 Clozapine
 N05AH03 Olanzapine
 N05AH04 Quétiapine
 N05AH05 Asénapine
-N05AH06 Clotiapine
-QN05AK Neuroleptiques, dans la dyskinésie tardive
-Vide.
-N05AL Benzamides
-N05AL01 Sulpiride
+N05AH06 Clotiapine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>QN05AK Neuroleptiques, dans la dyskinésie tardive</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N05AL Benzamides</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N05AL01 Sulpiride
 N05AL02 Sultopride
 N05AL03 Tiapride
 N05AL04 Rémoxipride
 N05AL05 Amisulpride
 N05AL06 Véralipride
-N05AL07 Lévosulpiride
-N05AN Lithium
-N05AN01 Lithium
-N05AX Autres antipsychotiques
-N05AX07 Prothipendyl
+N05AL07 Lévosulpiride</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N05AN Lithium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N05AN01 Lithium</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N05A Antipsychotiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N05AX Autres antipsychotiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N05AX07 Prothipendyl
 N05AX08 Rispéridone
 N05AX10 Mosapramine
 N05AX11 Zotépine
@@ -599,34 +991,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N05</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>N05B Anxiolytiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N05BA Dérivés des benzodiazépines
-N05BA01 Diazépam
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N05BA Dérivés des benzodiazépines</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N05BA01 Diazépam
 N05BA02 Chlordiazépoxide
 N05BA03 Médazépam
 N05BA04 Oxazépam
@@ -649,22 +1046,192 @@
 N05BA22 Cloxazolam
 N05BA23 Tofisopam
 N05BA24 Bentazépam
-N05BA56 Lorazépam, associations
-N05BB Dérivés du diphénylméthane
-N05BB01 Hydroxyzine
+N05BA56 Lorazépam, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N05B Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N05BB Dérivés du diphénylméthane</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N05BB01 Hydroxyzine
 N05BB02 Captodiame
-N05BB51 Hydroxyzine, associations
-N05BC Carbamates
-N05BC01 Méprobamate
+N05BB51 Hydroxyzine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N05B Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N05BC Carbamates</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N05BC01 Méprobamate
 N05BC03 Émylcamate
 N05BC04 Mébutamate
-N05BC51 Méprobamate, associations
-N05BD Dérivés du dibenzo-bicyclo-octadiène
-N05BD01 Benzoctamine
-N05BE Dérivés de l'azaspirodécanedione
-N05BE01 Buspirone
-N05BX Autres anxiolytiques
-N05BX01 Méphénoxalone
+N05BC51 Méprobamate, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N05B Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N05BD Dérivés du dibenzo-bicyclo-octadiène</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N05BD01 Benzoctamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N05B Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N05BE Dérivés de l'azaspirodécanedione</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N05BE01 Buspirone</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N05B Anxiolytiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N05BX Autres anxiolytiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N05BX01 Méphénoxalone
 N05BX02 Gédocarnil
 N05BX03 Étifoxine
 N05BX04 Fabomotizole
@@ -672,34 +1239,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N05</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>N05C Hypnotiques et sédatifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N05CA Barbituriques, seuls
-N05CA01 Pentobarbital
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N05CA Barbituriques, seuls</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N05CA01 Pentobarbital
 N05CA02 Amobarbital
 N05CA03 Butobarbital
 N05CA04 Barbital
@@ -716,18 +1288,120 @@
 N05CA19 Thiopental
 N05CA20 Étallobarbital
 N05CA21 Allobarbital
-N05CA22 Proxibarbal
-N05CB Barbituriques, associations
-N05CB01 Associations de barbituriques
-N05CB02 Barbituriques en association avec d'autres médicaments
-N05CC Aldéhydes et dérivés
-N05CC01 Hydrate de chloral
+N05CA22 Proxibarbal</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N05CB Barbituriques, associations</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N05CB01 Associations de barbituriques
+N05CB02 Barbituriques en association avec d'autres médicaments</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N05CC Aldéhydes et dérivés</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N05CC01 Hydrate de chloral
 N05CC02 Chloralodol
 N05CC03 Acétylglycinamide chloral hydrate
 N05CC04 Dichloralphénazone
-N05CC05 Paraldéhyde
-N05CD Dérivés des benzodiazépines
-N05CD01 Flurazépam
+N05CC05 Paraldéhyde</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N05CD Dérivés des benzodiazépines</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N05CD01 Flurazépam
 N05CD02 Nitrazépam
 N05CD03 Flunitrazépam
 N05CD04 Estazolam
@@ -740,22 +1414,158 @@
 N05CD11 Loprazolam
 N05CD12 Doxéfazépam
 N05CD13 Cinolazépam
-QN05CD90 Climazolam
-N05CE Dérivés du pipéridinédione
-N05CE01 Glutéthimide
+QN05CD90 Climazolam</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N05CE Dérivés du pipéridinédione</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N05CE01 Glutéthimide
 N05CE02 Méthyprylon
-N05CE03 Pyrithyldione
-N05CF Médicaments apparentés aux benzodiazépines
-N05CF01 Zopiclone
+N05CE03 Pyrithyldione</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N05CF Médicaments apparentés aux benzodiazépines</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N05CF01 Zopiclone
 N05CF02 Zolpidem
 N05CF03 Zaleplon
-N05CF04 Eszopiclone
-N05CH Récepteurs agonistes de la mélatonine
-N05CH01 Mélatonine
+N05CF04 Eszopiclone</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N05CH Récepteurs agonistes de la mélatonine</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N05CH01 Mélatonine
 N05CH02 Rameltéon
-N05CH03 Tasimeltéon
-N05CM Autres hypnotiques et sédatifs
-N05CM01 Méthaqualone
+N05CH03 Tasimeltéon</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>N05CM Autres hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N05CM01 Méthaqualone
 N05CM02 Clométhiazole
 N05CM03 Bromisoval
 N05CM04 Carbromal
@@ -776,9 +1586,43 @@
 QN05CM91 Médétomidine
 QN05CM92 Xylazine
 QN05CM93 Romifidine
-QN05CM94 Métomidate
-N05CX Hypnotiques et sédatifs en associations, sans barbituriques
-N05CX01 Méprobamate, associations
+QN05CM94 Métomidate</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N05C Hypnotiques et sédatifs</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>N05CX Hypnotiques et sédatifs en associations, sans barbituriques</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N05CX01 Méprobamate, associations
 N05CX02 Méthaqualone, associations
 N05CX03 Méthylpentynol, associations
 N05CX04 Clométhiazole, associations
